--- a/biology/Biologie cellulaire et moléculaire/Stratum_germinativum/Stratum_germinativum.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Stratum_germinativum/Stratum_germinativum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le stratum germinativum, appelé aussi stratum basale, est un tissu de la peau et de l'épiderme, composé de cellules souche attachées à la membrane basale par des hémidesmosomes. Ces cellules sont reliées entre elles par des desmosomes. Le noyau de ces cellules est arrondi et est situé au pôle basal de la cellule. Ce sont des cellules actives, sécrétrices : réticulum endoplasmique granuleux volumineux, appareil de Golgi développé, nombreuses mitochondries. Entre ces cellules peut se trouver des cellules de Merkel ou de Langerhans qui ne sont ni attachées à la membrane basale ni aux autres cellules.
